--- a/BDD/Dictionnaire de données.xlsx
+++ b/BDD/Dictionnaire de données.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="7272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
   <si>
     <t>Champs</t>
   </si>
@@ -50,18 +50,9 @@
     <t>Produit</t>
   </si>
   <si>
-    <t>Id_Etudiant</t>
-  </si>
-  <si>
-    <t>Nom_Etudiant</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
-    <t xml:space="preserve">INT </t>
-  </si>
-  <si>
     <t>INT (1)</t>
   </si>
   <si>
@@ -71,12 +62,6 @@
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>Id_Activité</t>
-  </si>
-  <si>
-    <t>Nom_Activité</t>
-  </si>
-  <si>
     <t>Id_Vote</t>
   </si>
   <si>
@@ -176,24 +161,15 @@
     <t>Panier</t>
   </si>
   <si>
-    <t>Description_Activite</t>
-  </si>
-  <si>
     <t>VARCHAR (124)</t>
   </si>
   <si>
     <t>VARCHAR</t>
   </si>
   <si>
-    <t>Nom_Manifestation</t>
-  </si>
-  <si>
     <t>MONEY</t>
   </si>
   <si>
-    <t>Statu</t>
-  </si>
-  <si>
     <t>Mdp</t>
   </si>
   <si>
@@ -210,6 +186,30 @@
   </si>
   <si>
     <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Objet_Activite</t>
+  </si>
+  <si>
+    <t>Nombre_Vote</t>
+  </si>
+  <si>
+    <t>Objet_Manifestation</t>
+  </si>
+  <si>
+    <t>Description_Produit</t>
+  </si>
+  <si>
+    <t>VARCHAR (50)</t>
+  </si>
+  <si>
+    <t>DATATIME</t>
+  </si>
+  <si>
+    <t>NUMERIC</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -274,11 +274,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -286,6 +297,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,21 +613,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E54"/>
+  <dimension ref="B2:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.89453125" customWidth="1"/>
-    <col min="3" max="3" width="21.68359375" customWidth="1"/>
-    <col min="4" max="4" width="24.41796875" customWidth="1"/>
-    <col min="5" max="5" width="13.89453125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,615 +641,536 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3"/>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="D31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="3" t="s">
-        <v>32</v>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="3" t="s">
-        <v>29</v>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="5" t="s">
-        <v>30</v>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="3"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDD/Dictionnaire de données.xlsx
+++ b/BDD/Dictionnaire de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>Champs</t>
   </si>
@@ -56,9 +56,6 @@
     <t>INT (1)</t>
   </si>
   <si>
-    <t>Etat_Connexion</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Validation_Activte</t>
   </si>
   <si>
-    <t>Photo_Evenement_Passe</t>
-  </si>
-  <si>
     <t>Nom_Evenement_Passe</t>
   </si>
   <si>
@@ -89,12 +83,6 @@
     <t>Description_Commentaire</t>
   </si>
   <si>
-    <t>Id_Like</t>
-  </si>
-  <si>
-    <t>Nombre_Like</t>
-  </si>
-  <si>
     <t>Id_Manifestation</t>
   </si>
   <si>
@@ -119,21 +107,6 @@
     <t>Prix_Produit</t>
   </si>
   <si>
-    <t>Nombre_Vendu</t>
-  </si>
-  <si>
-    <t>Nom_Categorie</t>
-  </si>
-  <si>
-    <t>Id_Panier</t>
-  </si>
-  <si>
-    <t>Prix_Panier</t>
-  </si>
-  <si>
-    <t>Quantite</t>
-  </si>
-  <si>
     <t>AUTO-INCREMENT</t>
   </si>
   <si>
@@ -155,12 +128,6 @@
     <t>Commentaire</t>
   </si>
   <si>
-    <t>Like</t>
-  </si>
-  <si>
-    <t>Panier</t>
-  </si>
-  <si>
     <t>VARCHAR (124)</t>
   </si>
   <si>
@@ -170,46 +137,82 @@
     <t>MONEY</t>
   </si>
   <si>
-    <t>Mdp</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Prenom</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
     <t>Id_Utilisateur</t>
   </si>
   <si>
     <t>Utilisateur</t>
   </si>
   <si>
-    <t>Statut</t>
-  </si>
-  <si>
-    <t>Objet_Activite</t>
-  </si>
-  <si>
     <t>Nombre_Vote</t>
   </si>
   <si>
-    <t>Objet_Manifestation</t>
-  </si>
-  <si>
     <t>Description_Produit</t>
   </si>
   <si>
     <t>VARCHAR (50)</t>
   </si>
   <si>
-    <t>DATATIME</t>
-  </si>
-  <si>
     <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>Nom_Utilisateur</t>
+  </si>
+  <si>
+    <t>Prenom_Utilisateur</t>
+  </si>
+  <si>
+    <t>Mail_Utilisateur</t>
+  </si>
+  <si>
+    <t>Mdp_Utilisateur</t>
+  </si>
+  <si>
+    <t>Statut_Utilisateur</t>
+  </si>
+  <si>
+    <t>Etat_Connexion_Utilisateur</t>
+  </si>
+  <si>
+    <t>Description_Activite</t>
+  </si>
+  <si>
+    <t>Description_Evenement_Passe</t>
+  </si>
+  <si>
+    <t>Id_Image</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Id_Likes</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>Nombre_Likes</t>
+  </si>
+  <si>
+    <t>Nom_Manifestation</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Categorie_Produit</t>
+  </si>
+  <si>
+    <t>Nombre_Vendu_Produit</t>
+  </si>
+  <si>
+    <t>Id_Commande</t>
+  </si>
+  <si>
+    <t>Prix_Commande</t>
+  </si>
+  <si>
+    <t>Commande</t>
   </si>
 </sst>
 </file>
@@ -613,15 +616,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E52"/>
+  <dimension ref="B2:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
@@ -643,13 +646,13 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -657,85 +660,85 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -743,49 +746,49 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -793,25 +796,25 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
@@ -819,25 +822,25 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -845,37 +848,37 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -883,25 +886,25 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
@@ -909,25 +912,25 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
@@ -935,118 +938,122 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>25</v>
+      <c r="B29" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>61</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -1055,10 +1062,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
@@ -1067,10 +1074,10 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
@@ -1078,48 +1085,54 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>33</v>
+      <c r="B38" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
@@ -1171,6 +1184,12 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BDD/Dictionnaire de données.xlsx
+++ b/BDD/Dictionnaire de données.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
   <si>
     <t>Champs</t>
   </si>
@@ -50,18 +50,9 @@
     <t>Produit</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>INT (1)</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>Id_Vote</t>
-  </si>
-  <si>
     <t>Id_Evenement_Passe</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>Validation_Activte</t>
   </si>
   <si>
-    <t>Nom_Evenement_Passe</t>
-  </si>
-  <si>
     <t>Id_Commentaire</t>
   </si>
   <si>
@@ -110,21 +98,12 @@
     <t>AUTO-INCREMENT</t>
   </si>
   <si>
-    <t>Nombre_Inscrit</t>
-  </si>
-  <si>
     <t>Activite</t>
   </si>
   <si>
     <t>Manifestation</t>
   </si>
   <si>
-    <t>Vote</t>
-  </si>
-  <si>
-    <t>Evenement passe</t>
-  </si>
-  <si>
     <t>Commentaire</t>
   </si>
   <si>
@@ -152,9 +131,6 @@
     <t>VARCHAR (50)</t>
   </si>
   <si>
-    <t>NUMERIC</t>
-  </si>
-  <si>
     <t>Nom_Utilisateur</t>
   </si>
   <si>
@@ -176,33 +152,18 @@
     <t>Description_Activite</t>
   </si>
   <si>
-    <t>Description_Evenement_Passe</t>
-  </si>
-  <si>
     <t>Id_Image</t>
   </si>
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>Id_Likes</t>
-  </si>
-  <si>
-    <t>Likes</t>
-  </si>
-  <si>
     <t>Nombre_Likes</t>
   </si>
   <si>
     <t>Nom_Manifestation</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>Categorie_Produit</t>
-  </si>
-  <si>
     <t>Nombre_Vendu_Produit</t>
   </si>
   <si>
@@ -213,6 +174,36 @@
   </si>
   <si>
     <t>Commande</t>
+  </si>
+  <si>
+    <t>Info_Manifestation</t>
+  </si>
+  <si>
+    <t>Image_Produit</t>
+  </si>
+  <si>
+    <t>Id_Categorie</t>
+  </si>
+  <si>
+    <t>Nom_Categorie</t>
+  </si>
+  <si>
+    <t>Categorie</t>
+  </si>
+  <si>
+    <t>Evenement_Passe</t>
+  </si>
+  <si>
+    <t>VARCHAR (255)</t>
+  </si>
+  <si>
+    <t>VARCHAR (100)</t>
+  </si>
+  <si>
+    <t>INT(25)</t>
+  </si>
+  <si>
+    <t>NUMERIC(255)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -277,22 +268,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -301,7 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,13 +625,13 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>4</v>
@@ -660,85 +639,85 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -746,165 +725,165 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>39</v>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>12</v>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>50</v>
+      <c r="B20" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>51</v>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>52</v>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>17</v>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>4</v>
@@ -912,25 +891,25 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
@@ -938,25 +917,25 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>19</v>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>4</v>
@@ -964,82 +943,82 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
@@ -1050,10 +1029,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
@@ -1061,78 +1040,56 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>40</v>
+      <c r="B36" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>59</v>
+      <c r="B38" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>58</v>
+      <c r="B39" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="3"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
